--- a/bin/formgen/form/FM-HR-01-02 แผนอัตรากำลังคน ประจำปี.xlsx
+++ b/bin/formgen/form/FM-HR-01-02 แผนอัตรากำลังคน ประจำปี.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\script\Calendar\bin\formgen\form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irisoffice365-my.sharepoint.com/personal/thanakorn_iris_co_th/Documents/งานอ๊อฟ HO/Calendar/bin/formgen/form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F98078-489C-404C-826B-1ABF9E870C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{05F98078-489C-404C-826B-1ABF9E870C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4DAC87E-5055-4B99-A7F8-6BBDDCDA2614}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="แผนอัตรากำลังคน" sheetId="1" r:id="rId1"/>
@@ -139,10 +139,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
-    <numFmt numFmtId="165" formatCode="#,##0_);[Red]\(#,##0\);\ \ \ \-\ \ \ "/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -729,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -778,18 +777,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,69 +806,55 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -900,6 +873,30 @@
     <xf numFmtId="164" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -909,44 +906,49 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1204,7 +1206,7 @@
   <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F7" sqref="F7:R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1235,16 +1237,16 @@
       <c r="N1" s="5"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="36" t="s">
+      <c r="R1" s="67"/>
+      <c r="S1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
     </row>
     <row r="2" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -1254,23 +1256,23 @@
       <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -1288,57 +1290,57 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="47" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="49">
         <v>2017</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="39" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="42"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="48"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
@@ -1375,18 +1377,18 @@
       <c r="R5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="42"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="44"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="57"/>
     </row>
     <row r="6" spans="1:22" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="49"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -1451,243 +1453,243 @@
       <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
     </row>
     <row r="8" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <f t="shared" ref="A8:A22" si="1">A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
     </row>
     <row r="9" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
     </row>
     <row r="10" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
     </row>
     <row r="11" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
     </row>
     <row r="12" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
     </row>
     <row r="13" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
     </row>
     <row r="14" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
     </row>
     <row r="15" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
     </row>
     <row r="16" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
@@ -1698,354 +1700,354 @@
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
       <c r="E16" s="74"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
     </row>
     <row r="17" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
     </row>
     <row r="18" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
     </row>
     <row r="19" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
     </row>
     <row r="20" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
     </row>
     <row r="21" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
     </row>
     <row r="22" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
     </row>
     <row r="23" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>17</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
     </row>
     <row r="24" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>18</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
     </row>
     <row r="25" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>19</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
     </row>
     <row r="26" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24">
+      <c r="A26" s="20">
         <v>20</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
     </row>
     <row r="27" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="34">
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="30">
         <f>SUM(F7:F26)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="30">
         <f t="shared" ref="G27:R27" si="2">SUM(G7:G26)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="34">
+      <c r="N27" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R27" s="34">
+      <c r="R27" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -2146,27 +2148,27 @@
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
       <c r="L32" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M32" s="6"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
       <c r="T32" s="6" t="s">
         <v>26</v>
       </c>
@@ -2175,33 +2177,33 @@
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="83" t="s">
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="83" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="35" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="6"/>
-      <c r="N33" s="84" t="s">
+      <c r="N33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="83" t="s">
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="35" t="s">
         <v>31</v>
       </c>
       <c r="U33" s="6"/>
@@ -2210,25 +2212,25 @@
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="86" t="s">
+      <c r="O34" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
@@ -2258,7 +2260,7 @@
       <c r="V35" s="6"/>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="6"/>
@@ -2281,7 +2283,7 @@
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
-      <c r="V36" s="31"/>
+      <c r="V36" s="27"/>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
@@ -2321,7 +2323,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="29"/>
+      <c r="N38" s="25"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
@@ -2465,7 +2467,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="29"/>
+      <c r="N44" s="25"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
@@ -25421,6 +25423,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:E6"/>
     <mergeCell ref="F4:F6"/>
@@ -25437,29 +25462,6 @@
     <mergeCell ref="G33:K33"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.2" bottom="0.196850393700787" header="0" footer="0"/>
